--- a/resources/registerationData.xlsx
+++ b/resources/registerationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11880" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,102 +17,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>First Name</t>
   </si>
   <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Address First Name</t>
+  </si>
+  <si>
+    <t>Address Last Name</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>sioux falls</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>57106</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Infosys</t>
+  </si>
+  <si>
+    <t>palam vihar</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
     <t>sos</t>
   </si>
   <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>catchup</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Dobey@234</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Address First Name</t>
-  </si>
-  <si>
-    <t>mai</t>
-  </si>
-  <si>
-    <t>Address Last Name</t>
-  </si>
-  <si>
-    <t>don</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>abcfdygv</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>sioux falls</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>+16057991072</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>avcgh</t>
-  </si>
-  <si>
-    <t>57106</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2020</t>
+    <t>dobey@1234</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>+16057991066</t>
   </si>
 </sst>
 </file>
@@ -469,12 +466,12 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -483,127 +480,127 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
